--- a/public/doctemplate/template#3.xlsx
+++ b/public/doctemplate/template#3.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Приложение 50</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>_____ст.техник______________  ___________________  _________Карпелев А.А.________________</t>
-  </si>
-  <si>
-    <t>a</t>
   </si>
 </sst>
 </file>
@@ -539,9 +536,7 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -553,19 +548,15 @@
     <col min="8" max="8" width="19.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="17"/>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="18" t="s">
         <v>1</v>
       </c>
@@ -576,8 +567,8 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="18" t="s">
         <v>12</v>
       </c>
@@ -588,8 +579,8 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="2:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -598,8 +589,8 @@
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:8" s="3" customFormat="1" ht="25.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="2:8" s="3" customFormat="1" ht="25.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
@@ -618,7 +609,7 @@
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" s="3" customFormat="1" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="9" t="s">
         <v>13</v>
@@ -631,7 +622,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="7" t="s">
         <v>7</v>
       </c>
@@ -646,12 +637,12 @@
       <c r="G12" s="15"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="19" t="s">
         <v>14</v>
       </c>
@@ -662,7 +653,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="16" t="s">
         <v>10</v>
       </c>
